--- a/results/I3_N5_M2_T45_C200_DepCentral_s0_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepCentral_s0_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>870.0831571140636</v>
+        <v>18.39770858716315</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0150001049041748</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.677845614195805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.78329414108774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>795.0000000000085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.58</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -915,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>33.18449368032031</v>
       </c>
     </row>
     <row r="5">
@@ -939,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,132 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1224,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>249.8050000000013</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
@@ -1235,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>278.4250000000013</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9">
@@ -1246,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>278.8300000000012</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10">
@@ -1257,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>289.5250000000012</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11">
@@ -1268,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>282.8700000000013</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12">
@@ -1279,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>181.6300000000006</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1290,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>202.2950000000006</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -1301,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>202.9900000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1312,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>212.6150000000006</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16">
@@ -1323,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>207.0200000000006</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
@@ -1334,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>208.06</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1345,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>189.4349999999993</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -1356,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>206.715</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1367,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>193.84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1378,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>203.27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -1389,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1400,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1411,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1422,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1433,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1444,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>70.22999999999978</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1455,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>80.22999999999979</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1466,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>86.27499999999978</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1477,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>87.40499999999979</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1488,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.38999999999979</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1499,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>249.8050000000013</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33">
@@ -1510,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>278.4250000000013</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34">
@@ -1521,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>278.8300000000012</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35">
@@ -1532,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>289.5250000000012</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36">
@@ -1543,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>282.8700000000013</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37">
@@ -1554,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>208.06</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1565,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>189.4349999999993</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1576,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>206.715</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -1587,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>193.84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1598,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.27</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>49.80500000000126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1656,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>78.42500000000126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1667,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>78.83000000000123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1678,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>89.52500000000123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1689,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>82.87000000000126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1700,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.059999999999349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1722,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>6.71499999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1744,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.269999999999357</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2022,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2033,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2044,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2055,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2094,138 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
